--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>67.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000530</t>
+          <t>217020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
+          <t>招商安达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.21</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>217020</t>
+          <t>000530</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安达灵活配置混合</t>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.86</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.95</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5684</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商安达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1248</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000530</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217020</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安达灵活配置混合</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.16</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -753,73 +677,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000530</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -855,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,32 +771,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003760</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强A</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -923,32 +809,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003761</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强C</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1195,7 +1081,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1225,32 +1111,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>003760</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>国泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1263,32 +1149,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>003761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>国泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1306,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1213,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1357,36 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>217020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>招商安达灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>80.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1395,35 +1281,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>000530</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1438,128 +1362,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.76</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -847,6 +864,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1054,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1186,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
+++ b/数据整理/stocks/A股/上证主板/603638-艾迪精密.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -930,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +985,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>79.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1013,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
